--- a/data/trans_orig/P39C-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>126991</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>106386</v>
+        <v>104407</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150748</v>
+        <v>146832</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1480386597238527</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1240187513038174</v>
+        <v>0.1217115850890377</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1757329337614585</v>
+        <v>0.1711675077495165</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -763,19 +763,19 @@
         <v>106802</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>89385</v>
+        <v>88314</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126931</v>
+        <v>127871</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09955798643942347</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08332255505766545</v>
+        <v>0.08232455824309309</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1183223328101021</v>
+        <v>0.1191986195748844</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>225</v>
@@ -784,19 +784,19 @@
         <v>233793</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>205418</v>
+        <v>204894</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>262636</v>
+        <v>259887</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1210996340126867</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.10640232915003</v>
+        <v>0.1061304699191195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1360395893178897</v>
+        <v>0.1346158796769921</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>225464</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>197112</v>
+        <v>201236</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>250874</v>
+        <v>252606</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2628318508850879</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2297806967286206</v>
+        <v>0.2345887248259518</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2924534501825225</v>
+        <v>0.2944721826965828</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>251</v>
@@ -834,19 +834,19 @@
         <v>265160</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>239591</v>
+        <v>237307</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>295047</v>
+        <v>296698</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2471761714764739</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2233415759673968</v>
+        <v>0.2212123441936149</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2750364798824748</v>
+        <v>0.2765752720042625</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>466</v>
@@ -855,19 +855,19 @@
         <v>490624</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>448058</v>
+        <v>453200</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>526137</v>
+        <v>530172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2541325337852596</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2320841608855986</v>
+        <v>0.2347476201717776</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2725277363379615</v>
+        <v>0.2746176416039002</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>227308</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>201412</v>
+        <v>199299</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>253477</v>
+        <v>254121</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2649816047136623</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2347943796699113</v>
+        <v>0.2323303149776398</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2954878598951405</v>
+        <v>0.296238743888887</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>309</v>
@@ -905,19 +905,19 @@
         <v>329534</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>299571</v>
+        <v>299868</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>359140</v>
+        <v>360693</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3071840283148338</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2792530960265291</v>
+        <v>0.2795299431177085</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3347819974340856</v>
+        <v>0.3362298258461985</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>524</v>
@@ -926,19 +926,19 @@
         <v>556842</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>520739</v>
+        <v>519204</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>596750</v>
+        <v>594388</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.288432025210001</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2697315195667435</v>
+        <v>0.2689365821062368</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3091037611741877</v>
+        <v>0.3078800037251996</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>124579</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105289</v>
+        <v>103071</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>146723</v>
+        <v>146053</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1452268546060925</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1227397745762887</v>
+        <v>0.1201542908454699</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1710401314964252</v>
+        <v>0.1702600851077765</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>127</v>
@@ -976,19 +976,19 @@
         <v>133966</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>114229</v>
+        <v>112746</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>157136</v>
+        <v>156728</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1248801442648655</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1064813357592324</v>
+        <v>0.1050992665977848</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1464783039781629</v>
+        <v>0.1460981311276867</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>246</v>
@@ -997,19 +997,19 @@
         <v>258545</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>230257</v>
+        <v>228467</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>289978</v>
+        <v>291022</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1339208946041714</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1192682832712615</v>
+        <v>0.1183412051579511</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1502023949479724</v>
+        <v>0.1507432579226302</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>153483</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>131843</v>
+        <v>128952</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>175958</v>
+        <v>175953</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1789210300713045</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1536948968042003</v>
+        <v>0.1503241211997587</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2051209789050439</v>
+        <v>0.2051156995076053</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>211</v>
@@ -1047,19 +1047,19 @@
         <v>237296</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>211518</v>
+        <v>209123</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>266142</v>
+        <v>267016</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2212016695044034</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1971719764766606</v>
+        <v>0.194939944082002</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2480914361393014</v>
+        <v>0.2489066544797636</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>356</v>
@@ -1068,19 +1068,19 @@
         <v>390779</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>355216</v>
+        <v>354310</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>428138</v>
+        <v>427732</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2024149123878814</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1839942866175882</v>
+        <v>0.1835248626062571</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2217664537532602</v>
+        <v>0.2215561174737911</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>92215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73632</v>
+        <v>74970</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111682</v>
+        <v>109862</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.132532379053372</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1058242399996978</v>
+        <v>0.1077471233185144</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1605106101344676</v>
+        <v>0.1578943308846357</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -1193,19 +1193,19 @@
         <v>63171</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50456</v>
+        <v>48902</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79576</v>
+        <v>80045</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07360029532970717</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05878576972406856</v>
+        <v>0.05697502804981708</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0927134053604227</v>
+        <v>0.09325983972315793</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>150</v>
@@ -1214,19 +1214,19 @@
         <v>155386</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135399</v>
+        <v>131509</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180053</v>
+        <v>179038</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09998519922045336</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0871239649811323</v>
+        <v>0.08462110185178043</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1158569321905852</v>
+        <v>0.1152041836846056</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>185125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>162732</v>
+        <v>162863</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>210151</v>
+        <v>206375</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2660628652504469</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2338791941712482</v>
+        <v>0.2340676099149486</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3020305714039807</v>
+        <v>0.2966037016269879</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>230</v>
@@ -1264,19 +1264,19 @@
         <v>242231</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>216564</v>
+        <v>217509</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>268329</v>
+        <v>271824</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.282221398812023</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2523168264855887</v>
+        <v>0.2534188937080799</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3126285604680548</v>
+        <v>0.3167001589915681</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>411</v>
@@ -1285,19 +1285,19 @@
         <v>427356</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>391782</v>
+        <v>390243</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>462941</v>
+        <v>465044</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2749869464034383</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2520968024710825</v>
+        <v>0.2511065443184622</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2978845047939694</v>
+        <v>0.2992379815323752</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>209133</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>186300</v>
+        <v>185975</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>233030</v>
+        <v>233916</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3005663179987423</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2677508198356598</v>
+        <v>0.2672836623692277</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3349113414856428</v>
+        <v>0.3361852483535218</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>235</v>
@@ -1335,19 +1335,19 @@
         <v>251409</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>224446</v>
+        <v>223929</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>279112</v>
+        <v>280026</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.292914505038596</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2615011054216094</v>
+        <v>0.2608978229307548</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3251915607733929</v>
+        <v>0.3262565754845375</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>443</v>
@@ -1356,19 +1356,19 @@
         <v>460541</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>425815</v>
+        <v>424704</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>496332</v>
+        <v>495926</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2963403528414686</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2739952888569657</v>
+        <v>0.2732805910799825</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3193703954450509</v>
+        <v>0.3191093264808054</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>89904</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72337</v>
+        <v>72970</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109103</v>
+        <v>107874</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1292109302595302</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1039628485490325</v>
+        <v>0.1048731971194472</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1568032931399427</v>
+        <v>0.1550372636007112</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>114</v>
@@ -1406,19 +1406,19 @@
         <v>124905</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105767</v>
+        <v>104836</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>146010</v>
+        <v>149698</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.145525601441636</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1232286770351972</v>
+        <v>0.1221434070702625</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.170115119177623</v>
+        <v>0.1744124103632398</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>202</v>
@@ -1427,19 +1427,19 @@
         <v>214809</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>188922</v>
+        <v>189121</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>245780</v>
+        <v>245196</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1382212435443752</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1215641794811664</v>
+        <v>0.1216918470273586</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1581496073325054</v>
+        <v>0.1577738505702636</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>119418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98996</v>
+        <v>102384</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>140288</v>
+        <v>141003</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1716275074379086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1422781658901773</v>
+        <v>0.1471464210283768</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2016226174654541</v>
+        <v>0.2026497802037076</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>162</v>
@@ -1477,19 +1477,19 @@
         <v>176585</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>153386</v>
+        <v>152320</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199714</v>
+        <v>202171</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2057381993780379</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1787091526950992</v>
+        <v>0.1774665977381058</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2326853421768022</v>
+        <v>0.2355479328588373</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>279</v>
@@ -1498,19 +1498,19 @@
         <v>296003</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>265327</v>
+        <v>267150</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>330057</v>
+        <v>328604</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1904662579902646</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1707276138468957</v>
+        <v>0.1719008695806</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2123789275553035</v>
+        <v>0.2114440694119823</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>61998</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46780</v>
+        <v>47599</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77868</v>
+        <v>76729</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09218738726033034</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06955910827781235</v>
+        <v>0.07077652371037722</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1157838297439065</v>
+        <v>0.1140909735710975</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -1623,19 +1623,19 @@
         <v>43291</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31554</v>
+        <v>31404</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57861</v>
+        <v>57209</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0645704070705066</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04706402700721988</v>
+        <v>0.04684093532370032</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08630346268118626</v>
+        <v>0.08533053165093554</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -1644,19 +1644,19 @@
         <v>105289</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>86877</v>
+        <v>86672</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>128070</v>
+        <v>126258</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07840033193099295</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06469037939970899</v>
+        <v>0.06453764734982088</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.095363228199127</v>
+        <v>0.09401437991953436</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>204649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>181867</v>
+        <v>181133</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>230849</v>
+        <v>230249</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3042995667959486</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.270423788267358</v>
+        <v>0.2693328782823754</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3432577838577701</v>
+        <v>0.3423645876854836</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>168</v>
@@ -1694,19 +1694,19 @@
         <v>173098</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>151538</v>
+        <v>151134</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>196523</v>
+        <v>196963</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2581856941855807</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2260270851983622</v>
+        <v>0.2254240129685151</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2931244761884852</v>
+        <v>0.293780802536833</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>364</v>
@@ -1715,19 +1715,19 @@
         <v>377747</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>347804</v>
+        <v>347162</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>412177</v>
+        <v>409735</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2812784215165155</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.258981777596859</v>
+        <v>0.2585036893315981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3069153482670333</v>
+        <v>0.3050967600862465</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>209415</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>186037</v>
+        <v>184130</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>232932</v>
+        <v>232080</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3113859758279275</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2766239724044889</v>
+        <v>0.273789394252915</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3463542942521152</v>
+        <v>0.3450876857773055</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>211</v>
@@ -1765,19 +1765,19 @@
         <v>226902</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>202401</v>
+        <v>203320</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>252186</v>
+        <v>255602</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3384363817849563</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3018930782475269</v>
+        <v>0.3032633896973717</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3761489351045172</v>
+        <v>0.3812442714549892</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>410</v>
@@ -1786,19 +1786,19 @@
         <v>436316</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>402388</v>
+        <v>399840</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>470793</v>
+        <v>469275</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.324890183784307</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.299626090438461</v>
+        <v>0.2977294065197702</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3505624195855349</v>
+        <v>0.3494316622219432</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>90883</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72921</v>
+        <v>75211</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107927</v>
+        <v>111166</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1351369243554907</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1084288514200341</v>
+        <v>0.1118344548874202</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1604805403935605</v>
+        <v>0.1652969988890085</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>86</v>
@@ -1836,19 +1836,19 @@
         <v>96170</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79715</v>
+        <v>78257</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118560</v>
+        <v>116052</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1434432894731472</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1188991779779934</v>
+        <v>0.1167249491173482</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1768382284797929</v>
+        <v>0.1730974825777056</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>172</v>
@@ -1857,19 +1857,19 @@
         <v>187053</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>161501</v>
+        <v>163191</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>216415</v>
+        <v>219700</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1392836599752312</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1202566250693156</v>
+        <v>0.1215151623353669</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1611467521607351</v>
+        <v>0.1635932513123712</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>105580</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87035</v>
+        <v>87036</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>124493</v>
+        <v>125436</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1569901457603028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1294156868631075</v>
+        <v>0.1294168727954955</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.185112295741165</v>
+        <v>0.1865155357945736</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>122</v>
@@ -1907,19 +1907,19 @@
         <v>130980</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>111400</v>
+        <v>110766</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152855</v>
+        <v>153663</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1953642274858092</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1661598746817954</v>
+        <v>0.1652139055602213</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2279911905499886</v>
+        <v>0.2291975189543006</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>225</v>
@@ -1928,19 +1928,19 @@
         <v>236560</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>209021</v>
+        <v>206553</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>265688</v>
+        <v>264354</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1761474027929534</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1556410380003747</v>
+        <v>0.1538037240739997</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1978366927313634</v>
+        <v>0.1968434374855705</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>28933</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19151</v>
+        <v>18778</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41239</v>
+        <v>41086</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07415945464906827</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04908549941000685</v>
+        <v>0.0481289906855709</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1056995501697746</v>
+        <v>0.1053083015276989</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -2053,19 +2053,19 @@
         <v>35984</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25865</v>
+        <v>24886</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48833</v>
+        <v>49276</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09207843051897811</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0661839905916857</v>
+        <v>0.06367908226229579</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1249586393289506</v>
+        <v>0.1260904362964392</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -2074,19 +2074,19 @@
         <v>64917</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50313</v>
+        <v>51194</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>81861</v>
+        <v>85361</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08312636568416971</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06442567008314862</v>
+        <v>0.06555320107584518</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.104822592573157</v>
+        <v>0.1093046070712237</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>104121</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>87665</v>
+        <v>85743</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>122018</v>
+        <v>124276</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2668735790242803</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2246954804086657</v>
+        <v>0.2197691274401048</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.312746367638078</v>
+        <v>0.3185329781195815</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>92</v>
@@ -2124,19 +2124,19 @@
         <v>97251</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>80904</v>
+        <v>80167</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>115897</v>
+        <v>115174</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2488519894245332</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2070229952282188</v>
+        <v>0.205136986659721</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2965645648322791</v>
+        <v>0.2947157150377132</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>186</v>
@@ -2145,19 +2145,19 @@
         <v>201371</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>176298</v>
+        <v>177202</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>226552</v>
+        <v>226535</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2578553186155813</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2257487292226158</v>
+        <v>0.2269073240822111</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2900994190570463</v>
+        <v>0.2900781725873631</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>115153</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>96352</v>
+        <v>96191</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>134880</v>
+        <v>132841</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2951506169956059</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.246962172749736</v>
+        <v>0.246549327941197</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3457129320376495</v>
+        <v>0.3404864913615116</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>97</v>
@@ -2195,19 +2195,19 @@
         <v>104639</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>88918</v>
+        <v>88024</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>122959</v>
+        <v>123266</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2677569344237012</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2275303085374534</v>
+        <v>0.2252414315341499</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3146369149859932</v>
+        <v>0.3154230081931427</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>208</v>
@@ -2216,19 +2216,19 @@
         <v>219791</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>195595</v>
+        <v>194396</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>244600</v>
+        <v>246191</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2814424276253328</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2504593155081035</v>
+        <v>0.2489242995884895</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.313210228239997</v>
+        <v>0.3152466522086967</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>55304</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>42573</v>
+        <v>41396</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>70627</v>
+        <v>71355</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1417502398549574</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1091196173635797</v>
+        <v>0.1061026241703446</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1810253168322092</v>
+        <v>0.1828909844871371</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>62</v>
@@ -2266,19 +2266,19 @@
         <v>68438</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53784</v>
+        <v>55071</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>84400</v>
+        <v>85469</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1751249762571543</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1376257984047178</v>
+        <v>0.1409186221961605</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2159691362425814</v>
+        <v>0.2187043037676056</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>114</v>
@@ -2287,19 +2287,19 @@
         <v>123742</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>104814</v>
+        <v>103483</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>149092</v>
+        <v>145346</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1584514338467972</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1342142018012268</v>
+        <v>0.1325102845419474</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1909124372624806</v>
+        <v>0.1861152384344575</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>86639</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>69859</v>
+        <v>69749</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>104333</v>
+        <v>104416</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2220661094760881</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1790576809676648</v>
+        <v>0.1787743952151648</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2674182867718748</v>
+        <v>0.2676304855944655</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>79</v>
@@ -2337,19 +2337,19 @@
         <v>84485</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>68093</v>
+        <v>67867</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>102010</v>
+        <v>101377</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2161876693756331</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1742419053655897</v>
+        <v>0.1736639117720539</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2610314611178187</v>
+        <v>0.2594115076117143</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>159</v>
@@ -2358,19 +2358,19 @@
         <v>171124</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>148485</v>
+        <v>146748</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>195788</v>
+        <v>195914</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2191244542281189</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1901348141033412</v>
+        <v>0.1879105946249963</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2507062127293614</v>
+        <v>0.2508679197170461</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>310138</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>277696</v>
+        <v>280174</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>342080</v>
+        <v>346949</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1185410131001589</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1061409142297988</v>
+        <v>0.1070879915402132</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1307496546209495</v>
+        <v>0.13261096176693</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>241</v>
@@ -2483,19 +2483,19 @@
         <v>249247</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>219714</v>
+        <v>221712</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>279687</v>
+        <v>280458</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08329636456491585</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07342663647945576</v>
+        <v>0.074094139371186</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09346915053833493</v>
+        <v>0.09372683137901737</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>535</v>
@@ -2504,19 +2504,19 @@
         <v>559385</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>515662</v>
+        <v>513482</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>602658</v>
+        <v>602817</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09973728735461114</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09194143983127188</v>
+        <v>0.09155278917577592</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1074527366464535</v>
+        <v>0.1074811316801185</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>719358</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>675391</v>
+        <v>674307</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>769162</v>
+        <v>767763</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2749532271116752</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2581480913128908</v>
+        <v>0.2577336339962102</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2939891768269696</v>
+        <v>0.2934542555503746</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>741</v>
@@ -2554,19 +2554,19 @@
         <v>777739</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>729653</v>
+        <v>731151</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>826012</v>
+        <v>828977</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2599140380729081</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2438438132297253</v>
+        <v>0.2443446712023204</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.276046168250247</v>
+        <v>0.2770373101929238</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1427</v>
@@ -2575,19 +2575,19 @@
         <v>1497098</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1438982</v>
+        <v>1425556</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1566468</v>
+        <v>1564996</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.266929518609159</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2565676092170766</v>
+        <v>0.2541736999609378</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2792980376928524</v>
+        <v>0.279035669830027</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>761008</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>714830</v>
+        <v>714452</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>807636</v>
+        <v>807683</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2908724984933863</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2732224855766174</v>
+        <v>0.2730777249820302</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3086945913186989</v>
+        <v>0.3087127945291333</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>852</v>
@@ -2625,19 +2625,19 @@
         <v>912483</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>860476</v>
+        <v>863124</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>959542</v>
+        <v>967317</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3049440548936967</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2875638284970725</v>
+        <v>0.2884488394469651</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3206710844092667</v>
+        <v>0.3232694202585609</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1585</v>
@@ -2646,19 +2646,19 @@
         <v>1673491</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1596607</v>
+        <v>1601719</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1747063</v>
+        <v>1743244</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2983799556070488</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2846717098552282</v>
+        <v>0.285583230976719</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3114978219241161</v>
+        <v>0.3108168265790475</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>360670</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>325474</v>
+        <v>326091</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>394066</v>
+        <v>398691</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1378553867700585</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1244028540195537</v>
+        <v>0.1246385837866145</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1506199372051278</v>
+        <v>0.1523877198409593</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>389</v>
@@ -2696,19 +2696,19 @@
         <v>423479</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>385674</v>
+        <v>385975</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>464800</v>
+        <v>468291</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1415232228583381</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1288889983208369</v>
+        <v>0.1289897602266718</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1553321494816691</v>
+        <v>0.1564990045257205</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>734</v>
@@ -2717,19 +2717,19 @@
         <v>784149</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>731525</v>
+        <v>729303</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>835883</v>
+        <v>837778</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1398122507692743</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.130429439467757</v>
+        <v>0.1300331694798197</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1490362419266563</v>
+        <v>0.1493740365486016</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>465119</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>429624</v>
+        <v>422354</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>506285</v>
+        <v>504993</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1777778745247212</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1642110415573547</v>
+        <v>0.1614319812697051</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.193512241221541</v>
+        <v>0.1930184832248711</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>574</v>
@@ -2767,19 +2767,19 @@
         <v>629346</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>584152</v>
+        <v>584890</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>677610</v>
+        <v>679212</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2103223196101412</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1952187292414088</v>
+        <v>0.1954653429159715</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2264514395434681</v>
+        <v>0.2269868149912684</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1019</v>
@@ -2788,19 +2788,19 @@
         <v>1094466</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1030553</v>
+        <v>1031052</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1149990</v>
+        <v>1153693</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1951409876599067</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1837455830918027</v>
+        <v>0.1838345153719431</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2050409235027804</v>
+        <v>0.205701110979854</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>41787</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28438</v>
+        <v>28871</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57093</v>
+        <v>56529</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1238329073092633</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0842749823066679</v>
+        <v>0.08555719508110154</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1691920519620124</v>
+        <v>0.1675202685663287</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -3153,19 +3153,19 @@
         <v>44703</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34357</v>
+        <v>35262</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57815</v>
+        <v>58062</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08579302609342404</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06593784605313466</v>
+        <v>0.06767362888551305</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1109574987241275</v>
+        <v>0.1114323684341873</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>93</v>
@@ -3174,19 +3174,19 @@
         <v>86490</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69520</v>
+        <v>68854</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105612</v>
+        <v>105356</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.100745184972932</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08097870002685681</v>
+        <v>0.08020296572223808</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1230194855415457</v>
+        <v>0.1227208166402854</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>84736</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69648</v>
+        <v>69593</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>106454</v>
+        <v>102154</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.25110885408479</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2063975951838999</v>
+        <v>0.2062328452751564</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3154680472699242</v>
+        <v>0.3027274720589169</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>137</v>
@@ -3224,19 +3224,19 @@
         <v>108779</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>92890</v>
+        <v>93042</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>128891</v>
+        <v>127414</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.208767822458297</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1782727930432465</v>
+        <v>0.1785650181702242</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2473668085111249</v>
+        <v>0.2445311020470447</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>216</v>
@@ -3245,19 +3245,19 @@
         <v>193515</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>170801</v>
+        <v>171822</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>222982</v>
+        <v>219859</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2254106144904127</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1989522463276868</v>
+        <v>0.2001423603578525</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2597339551490676</v>
+        <v>0.2560958352090895</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>77144</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>61818</v>
+        <v>61406</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94597</v>
+        <v>94342</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2286092867871493</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1831926412158722</v>
+        <v>0.1819712301684007</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2803303414629283</v>
+        <v>0.2795772285294989</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>203</v>
@@ -3295,19 +3295,19 @@
         <v>138324</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>120865</v>
+        <v>121610</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>155092</v>
+        <v>154805</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2654689289117586</v>
+        <v>0.2654689289117585</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2319623040697108</v>
+        <v>0.2333915829834052</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2976501640742419</v>
+        <v>0.2971001084546819</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>283</v>
@@ -3316,19 +3316,19 @@
         <v>215467</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>192951</v>
+        <v>193308</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>240088</v>
+        <v>240466</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2509806811130384</v>
+        <v>0.2509806811130383</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2247531931369354</v>
+        <v>0.2251687069083206</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2796598038388691</v>
+        <v>0.2801003497276932</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>67864</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52261</v>
+        <v>54461</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83176</v>
+        <v>82883</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2011114161575725</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1548721273924341</v>
+        <v>0.1613918421438791</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2464875964362962</v>
+        <v>0.2456171806791312</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>141</v>
@@ -3366,19 +3366,19 @@
         <v>86229</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71942</v>
+        <v>72673</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98833</v>
+        <v>101125</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1654900165015329</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1380705377738651</v>
+        <v>0.1394727125126295</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1896787572226485</v>
+        <v>0.1940775164269938</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>215</v>
@@ -3387,19 +3387,19 @@
         <v>154094</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>134601</v>
+        <v>134324</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>176858</v>
+        <v>173144</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1794915541021756</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1567863593623854</v>
+        <v>0.1564629282608259</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2060076802174858</v>
+        <v>0.2016815409182322</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>65916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51916</v>
+        <v>51833</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>81037</v>
+        <v>81072</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1953375356612248</v>
+        <v>0.1953375356612249</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1538495475127007</v>
+        <v>0.1536038569672056</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2401463746853937</v>
+        <v>0.2402519834859416</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>217</v>
@@ -3437,19 +3437,19 @@
         <v>143019</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>125809</v>
+        <v>125317</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>160717</v>
+        <v>161083</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2744802060349874</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2414513500370586</v>
+        <v>0.2405061295182715</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3084452503730272</v>
+        <v>0.3091485323810588</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>288</v>
@@ -3458,19 +3458,19 @@
         <v>208935</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>185200</v>
+        <v>185626</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>233612</v>
+        <v>231824</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2433719653214414</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2157243344161214</v>
+        <v>0.2162205497470792</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.272116667493726</v>
+        <v>0.2700331526919875</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>90376</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72464</v>
+        <v>72421</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>114003</v>
+        <v>111558</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1218541744302641</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0977034955064261</v>
+        <v>0.0976453171176509</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1537106195658864</v>
+        <v>0.1504137170786652</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -3583,19 +3583,19 @@
         <v>75880</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62135</v>
+        <v>62492</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91776</v>
+        <v>91511</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08007742307822448</v>
+        <v>0.08007742307822449</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06557206206148249</v>
+        <v>0.06594889512047379</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0968527536496049</v>
+        <v>0.09657356718135032</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -3604,19 +3604,19 @@
         <v>166256</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142077</v>
+        <v>142548</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>192546</v>
+        <v>193463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09841965541867401</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08410625777166644</v>
+        <v>0.08438517462817093</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.113982817561493</v>
+        <v>0.1145254313721618</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>221653</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>195891</v>
+        <v>196909</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>247444</v>
+        <v>248460</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2988549858990035</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2641206216561192</v>
+        <v>0.2654931718917282</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3336297021567081</v>
+        <v>0.3349992844716916</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>374</v>
@@ -3654,19 +3654,19 @@
         <v>263155</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240614</v>
+        <v>239958</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>288909</v>
+        <v>285813</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2777118641853716</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2539237945302181</v>
+        <v>0.2532321779913494</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3048904846474064</v>
+        <v>0.301623568315682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>577</v>
@@ -3675,19 +3675,19 @@
         <v>484808</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>451419</v>
+        <v>451420</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>520191</v>
+        <v>526891</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2869948275160018</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2672297681696904</v>
+        <v>0.2672300236903118</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3079410458240821</v>
+        <v>0.3119073524115925</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>204873</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>180301</v>
+        <v>180564</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>231850</v>
+        <v>227717</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2762299235210329</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2431001122992154</v>
+        <v>0.2434550803301615</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3126041231330822</v>
+        <v>0.3070307395340904</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>377</v>
@@ -3725,19 +3725,19 @@
         <v>253638</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>229138</v>
+        <v>231460</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>276941</v>
+        <v>277327</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2676688571795421</v>
+        <v>0.2676688571795422</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2418132097312641</v>
+        <v>0.2442639797630319</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2922609945844428</v>
+        <v>0.2926684670409921</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>599</v>
@@ -3746,19 +3746,19 @@
         <v>458511</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>426224</v>
+        <v>425201</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>494467</v>
+        <v>492314</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2714276240255898</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2523146922137959</v>
+        <v>0.2517088306298728</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2927125922296094</v>
+        <v>0.2914382052127519</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>107165</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89851</v>
+        <v>89772</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>128107</v>
+        <v>127648</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1444906643030669</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1211462733029794</v>
+        <v>0.1210390637174591</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1727267341320424</v>
+        <v>0.1721073203249356</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>272</v>
@@ -3796,19 +3796,19 @@
         <v>166335</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>148418</v>
+        <v>149040</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>184752</v>
+        <v>186945</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1755358836722447</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.156628645934531</v>
+        <v>0.1572845855225492</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.194972211898492</v>
+        <v>0.1972860482070248</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>402</v>
@@ -3817,19 +3817,19 @@
         <v>273500</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>249376</v>
+        <v>246525</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>302694</v>
+        <v>300319</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1619053688930748</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1476250394378009</v>
+        <v>0.1459370443213262</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1791878839968617</v>
+        <v>0.1777821039438922</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>117607</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>99350</v>
+        <v>98700</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>136703</v>
+        <v>136676</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1585702518466326</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.133953563662178</v>
+        <v>0.1330775495684116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1843174575959597</v>
+        <v>0.1842807158908178</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>308</v>
@@ -3867,19 +3867,19 @@
         <v>188574</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>168709</v>
+        <v>170690</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>211177</v>
+        <v>209012</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1990059718846169</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1780415760410379</v>
+        <v>0.1801320749109846</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2228590669610859</v>
+        <v>0.2205736264394857</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>451</v>
@@ -3888,19 +3888,19 @@
         <v>306182</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>279079</v>
+        <v>277980</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>333237</v>
+        <v>335895</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1812525241466594</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1652082621527595</v>
+        <v>0.1645575061868858</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1972682320139234</v>
+        <v>0.1988422163482905</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>60156</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44356</v>
+        <v>44201</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78171</v>
+        <v>77328</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06848409479155107</v>
+        <v>0.06848409479155108</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05049618208836163</v>
+        <v>0.05031950525236081</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08899272062190179</v>
+        <v>0.08803282208739403</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -4013,19 +4013,19 @@
         <v>62571</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49165</v>
+        <v>50651</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77913</v>
+        <v>78743</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06918789270588263</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05436385379703677</v>
+        <v>0.05600699133704389</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08615127743925992</v>
+        <v>0.0870695182480772</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>133</v>
@@ -4034,19 +4034,19 @@
         <v>122728</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>103803</v>
+        <v>102775</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>146446</v>
+        <v>146252</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06884112002043699</v>
+        <v>0.068841120020437</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05822592396893304</v>
+        <v>0.05764919606428053</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08214536105899922</v>
+        <v>0.08203635229445165</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>257295</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>231239</v>
+        <v>229415</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>286881</v>
+        <v>284906</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2929131712592762</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2632509990626153</v>
+        <v>0.261173615935147</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.326595538918186</v>
+        <v>0.3243473947519627</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>339</v>
@@ -4084,19 +4084,19 @@
         <v>232065</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211738</v>
+        <v>209780</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>256004</v>
+        <v>255281</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2566042071857371</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2341280907311798</v>
+        <v>0.231963028207522</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2830742108864954</v>
+        <v>0.2822752932125393</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>582</v>
@@ -4105,19 +4105,19 @@
         <v>489360</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>452866</v>
+        <v>451582</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>527277</v>
+        <v>527825</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2744942246483333</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2540236980717554</v>
+        <v>0.2533037024388</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2957627669953343</v>
+        <v>0.296070348460462</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>255182</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>228520</v>
+        <v>226617</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>285703</v>
+        <v>284967</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.290508103617806</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2601554777280181</v>
+        <v>0.2579887340925477</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3252539329675461</v>
+        <v>0.3244167394072615</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>416</v>
@@ -4155,19 +4155,19 @@
         <v>271607</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>246404</v>
+        <v>247900</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>292698</v>
+        <v>294436</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3003276482922305</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2724601255107457</v>
+        <v>0.2741139539610565</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3236493623838959</v>
+        <v>0.3255709033634767</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>676</v>
@@ -4176,19 +4176,19 @@
         <v>526789</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>490550</v>
+        <v>488233</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>563198</v>
+        <v>562942</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.295489398835584</v>
+        <v>0.2954893988355839</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2751618921645229</v>
+        <v>0.2738619295963871</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3159119872118409</v>
+        <v>0.3157685658636935</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>147495</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>126927</v>
+        <v>127223</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>173943</v>
+        <v>172514</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1679133452535425</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.144497698091805</v>
+        <v>0.1448346739459462</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.198022580789375</v>
+        <v>0.1963961802355006</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>210</v>
@@ -4226,19 +4226,19 @@
         <v>135783</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>118287</v>
+        <v>118472</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>155369</v>
+        <v>153428</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1501416962405793</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1307946631732363</v>
+        <v>0.1309997264793989</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1717982467325903</v>
+        <v>0.1696525169608599</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>380</v>
@@ -4247,19 +4247,19 @@
         <v>283279</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>252179</v>
+        <v>254610</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>310409</v>
+        <v>312941</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1588980769111241</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1414533243676382</v>
+        <v>0.1428169927363553</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1741161481176448</v>
+        <v>0.1755366093673916</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>158271</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>138293</v>
+        <v>137166</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>183092</v>
+        <v>182759</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1801812850778242</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1574370660712713</v>
+        <v>0.1561551131222817</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2084379021397453</v>
+        <v>0.208058918665178</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>318</v>
@@ -4297,19 +4297,19 @@
         <v>202342</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>180772</v>
+        <v>182999</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>224255</v>
+        <v>226445</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2237385555755705</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1998879824530324</v>
+        <v>0.2023496683989148</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2479680849926038</v>
+        <v>0.2503896942198661</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>498</v>
@@ -4318,19 +4318,19 @@
         <v>360613</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>332884</v>
+        <v>329130</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>395885</v>
+        <v>393725</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2022771795845217</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1867231717568167</v>
+        <v>0.1846170246114827</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2220616208336124</v>
+        <v>0.2208503938913008</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>48541</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35366</v>
+        <v>35290</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63916</v>
+        <v>65170</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06191801547819578</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04511312339147604</v>
+        <v>0.04501582704503251</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08153077875119916</v>
+        <v>0.08313097863912138</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -4443,19 +4443,19 @@
         <v>46427</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35087</v>
+        <v>34577</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58758</v>
+        <v>59027</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05845510429608842</v>
+        <v>0.05845510429608841</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04417744197847808</v>
+        <v>0.0435353812830578</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.073980688817138</v>
+        <v>0.07431951317514557</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -4464,19 +4464,19 @@
         <v>94968</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>76857</v>
+        <v>77979</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>115451</v>
+        <v>116191</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06017527156525719</v>
+        <v>0.0601752715652572</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04869958304963481</v>
+        <v>0.0494102793470996</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07315442444520744</v>
+        <v>0.07362295384935498</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>162269</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>140376</v>
+        <v>138376</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>191240</v>
+        <v>189181</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2069893646969631</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1790628122717175</v>
+        <v>0.1765109120648443</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2439448037062005</v>
+        <v>0.2413174593585483</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>235</v>
@@ -4514,19 +4514,19 @@
         <v>168232</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>149936</v>
+        <v>146527</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>189771</v>
+        <v>190985</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2118154286117788</v>
+        <v>0.2118154286117787</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1887800204686941</v>
+        <v>0.1844869204357348</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2389349739710214</v>
+        <v>0.2404636920378637</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>385</v>
@@ -4535,19 +4535,19 @@
         <v>330501</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>299218</v>
+        <v>300268</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>366629</v>
+        <v>364352</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2094181285516223</v>
+        <v>0.2094181285516224</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1895958939931731</v>
+        <v>0.1902612465627774</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2323104243732433</v>
+        <v>0.2308671886564126</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>268392</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>240234</v>
+        <v>240170</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>296753</v>
+        <v>294727</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3423594050040516</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3064413053534287</v>
+        <v>0.306359494185169</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3785362587330034</v>
+        <v>0.3759515770572596</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>419</v>
@@ -4585,19 +4585,19 @@
         <v>264402</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>243294</v>
+        <v>242001</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>288606</v>
+        <v>287550</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3329005634252109</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3063235614283402</v>
+        <v>0.3046964325410288</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3633749128587216</v>
+        <v>0.3620445910244198</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>699</v>
@@ -4606,19 +4606,19 @@
         <v>532795</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>499546</v>
+        <v>500628</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>568242</v>
+        <v>569772</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3375991504904075</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3165314375579277</v>
+        <v>0.3172169545040253</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3600600332171338</v>
+        <v>0.3610292558512417</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>138986</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>116665</v>
+        <v>115692</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>162184</v>
+        <v>162150</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1772894509819621</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.148816557278625</v>
+        <v>0.1475754087535315</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2068809756280737</v>
+        <v>0.2068374085074945</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>218</v>
@@ -4656,19 +4656,19 @@
         <v>132394</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>116288</v>
+        <v>116665</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>151542</v>
+        <v>149391</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1666932142283835</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1464140503193582</v>
+        <v>0.1468887422222745</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1908012555909439</v>
+        <v>0.1880935555768813</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>363</v>
@@ -4677,19 +4677,19 @@
         <v>271380</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>241109</v>
+        <v>242392</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>297119</v>
+        <v>301866</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1719567912251163</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1527758775791187</v>
+        <v>0.1535890367984264</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1882658948846304</v>
+        <v>0.1912740178676186</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>165761</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>145661</v>
+        <v>142976</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>190916</v>
+        <v>192516</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2114437638388275</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1858040014414117</v>
+        <v>0.1823791178471935</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2435313388936854</v>
+        <v>0.2455723280376399</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>266</v>
@@ -4727,19 +4727,19 @@
         <v>182783</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>162810</v>
+        <v>161852</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>204651</v>
+        <v>204604</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2301356894385385</v>
+        <v>0.2301356894385384</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2049888032469014</v>
+        <v>0.2037831306800674</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2576698770550256</v>
+        <v>0.2576105952581519</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>452</v>
@@ -4748,19 +4748,19 @@
         <v>348544</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>317591</v>
+        <v>314230</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>380758</v>
+        <v>378150</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2208506581675967</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2012381419843418</v>
+        <v>0.1991080783190824</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2412627112850294</v>
+        <v>0.2396101086689613</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>240860</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>213048</v>
+        <v>206985</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>275762</v>
+        <v>272942</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.0878580213738715</v>
+        <v>0.08785802137387148</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07771290071975365</v>
+        <v>0.07550157319914004</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1005892574496974</v>
+        <v>0.09956064768472617</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>301</v>
@@ -4873,19 +4873,19 @@
         <v>229581</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>205784</v>
+        <v>204481</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>258230</v>
+        <v>257094</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07248618942869071</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06497244360146964</v>
+        <v>0.06456107468606755</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08153137334008115</v>
+        <v>0.08117270397571125</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>510</v>
@@ -4894,19 +4894,19 @@
         <v>470441</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>430909</v>
+        <v>432526</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>512921</v>
+        <v>517918</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.07961826751734523</v>
+        <v>0.07961826751734524</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07292781765532307</v>
+        <v>0.07320136631303882</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08680759520663214</v>
+        <v>0.08765336081238637</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>725953</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>677957</v>
+        <v>672888</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>778370</v>
+        <v>778495</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2648042529541714</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2472970356004605</v>
+        <v>0.245447791838105</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2839244018616716</v>
+        <v>0.2839699577415918</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1085</v>
@@ -4944,19 +4944,19 @@
         <v>772231</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>731213</v>
+        <v>729825</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>819326</v>
+        <v>815990</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2438179928770537</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2308673640506076</v>
+        <v>0.2304291669094518</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2586872781151997</v>
+        <v>0.2576341383053427</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1760</v>
@@ -4965,19 +4965,19 @@
         <v>1498183</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1437775</v>
+        <v>1435033</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1562457</v>
+        <v>1567157</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.253555000553991</v>
+        <v>0.2535550005539911</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2433313760139238</v>
+        <v>0.2428673296624436</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2644327507089749</v>
+        <v>0.2652282119984891</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>805590</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>759113</v>
+        <v>757949</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>859131</v>
+        <v>855981</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2938535514175504</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2769000599428271</v>
+        <v>0.2764754644490643</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3133834353482908</v>
+        <v>0.3122344432767909</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1415</v>
@@ -5015,19 +5015,19 @@
         <v>927971</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>885266</v>
+        <v>883063</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>974959</v>
+        <v>973801</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2929901895499257</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2795067926106522</v>
+        <v>0.2788110611477406</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3078257618682954</v>
+        <v>0.3074601334289839</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2257</v>
@@ -5036,19 +5036,19 @@
         <v>1733562</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1672428</v>
+        <v>1667963</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1797647</v>
+        <v>1799355</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2933907640735495</v>
+        <v>0.2933907640735496</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2830444238398716</v>
+        <v>0.2822887508518474</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3042367400876336</v>
+        <v>0.3045256859826976</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>461510</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>419765</v>
+        <v>421407</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>498996</v>
+        <v>502411</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1683441321201527</v>
+        <v>0.1683441321201526</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1531169916854075</v>
+        <v>0.1537157892637738</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1820179111624336</v>
+        <v>0.1832632693785873</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>841</v>
@@ -5086,19 +5086,19 @@
         <v>520742</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>486513</v>
+        <v>488029</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>558827</v>
+        <v>553539</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1644147458173973</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1536077181545691</v>
+        <v>0.1540862097554293</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1764396299059611</v>
+        <v>0.1747698474368757</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1360</v>
@@ -5107,19 +5107,19 @@
         <v>982252</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>933557</v>
+        <v>928031</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1043281</v>
+        <v>1033366</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1662378655373944</v>
+        <v>0.1662378655373945</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1579966752725927</v>
+        <v>0.1570615429063386</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1765666388754696</v>
+        <v>0.1748884667469235</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>507556</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>469487</v>
+        <v>468525</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>550549</v>
+        <v>547665</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1851400421342541</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1712538611644639</v>
+        <v>0.1709030689639979</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.200822781295905</v>
+        <v>0.199770533489723</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1109</v>
@@ -5157,19 +5157,19 @@
         <v>716718</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>673831</v>
+        <v>676395</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>758458</v>
+        <v>756365</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2262908823269326</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2127500044301459</v>
+        <v>0.2135594068784334</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2394693578403667</v>
+        <v>0.2388084509361192</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1689</v>
@@ -5178,19 +5178,19 @@
         <v>1224274</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1171028</v>
+        <v>1166080</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1284282</v>
+        <v>1283094</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2071981023177198</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1981866893725467</v>
+        <v>0.1973492166417014</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2173539862629006</v>
+        <v>0.2171528807230354</v>
       </c>
     </row>
     <row r="33">
